--- a/All_import.xlsx
+++ b/All_import.xlsx
@@ -5,27 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\Новая папка\KT6_AkimovaViktoria_ISP411\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055" activeTab="10"/>
+    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055" tabRatio="949" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="role" sheetId="5" r:id="rId2"/>
-    <sheet name="order" sheetId="2" r:id="rId3"/>
-    <sheet name="ordercount" sheetId="15" r:id="rId4"/>
-    <sheet name="status" sheetId="7" r:id="rId5"/>
-    <sheet name="pvz" sheetId="3" r:id="rId6"/>
-    <sheet name="index" sheetId="10" r:id="rId7"/>
-    <sheet name="town" sheetId="8" r:id="rId8"/>
-    <sheet name="street" sheetId="9" r:id="rId9"/>
-    <sheet name="product" sheetId="4" r:id="rId10"/>
-    <sheet name="post" sheetId="14" r:id="rId11"/>
-    <sheet name="kattov" sheetId="13" r:id="rId12"/>
-    <sheet name="name" sheetId="12" r:id="rId13"/>
-    <sheet name="manuf" sheetId="11" r:id="rId14"/>
+    <sheet name="kattov" sheetId="13" r:id="rId1"/>
+    <sheet name="name" sheetId="12" r:id="rId2"/>
+    <sheet name="index" sheetId="10" r:id="rId3"/>
+    <sheet name="role" sheetId="5" r:id="rId4"/>
+    <sheet name="manuf" sheetId="11" r:id="rId5"/>
+    <sheet name="post" sheetId="14" r:id="rId6"/>
+    <sheet name="town" sheetId="8" r:id="rId7"/>
+    <sheet name="street" sheetId="9" r:id="rId8"/>
+    <sheet name="status" sheetId="7" r:id="rId9"/>
+    <sheet name="user" sheetId="1" r:id="rId10"/>
+    <sheet name="order" sheetId="2" r:id="rId11"/>
+    <sheet name="ordercount" sheetId="15" r:id="rId12"/>
+    <sheet name="pvz" sheetId="3" r:id="rId13"/>
+    <sheet name="product" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1132,12 +1132,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1391,15 +1439,2084 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="A2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="47.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="21">
+        <v>44687</v>
+      </c>
+      <c r="D2" s="21">
+        <v>44693</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3">
+        <v>601</v>
+      </c>
+      <c r="H2" s="3">
+        <f>LOOKUP(I2,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="21">
+        <v>44687</v>
+      </c>
+      <c r="D3" s="21">
+        <v>44693</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6">
+        <v>602</v>
+      </c>
+      <c r="H3" s="3">
+        <f>LOOKUP(I3,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>LOOKUP(F4,user!$D$2:$D$11,user!$A$2:$A$11)</f>
+        <v>9</v>
+      </c>
+      <c r="C4" s="21">
+        <v>44689</v>
+      </c>
+      <c r="D4" s="21">
+        <v>44695</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3">
+        <v>603</v>
+      </c>
+      <c r="H4" s="3">
+        <f>LOOKUP(I4,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="21">
+        <v>44689</v>
+      </c>
+      <c r="D5" s="21">
+        <v>44695</v>
+      </c>
+      <c r="E5" s="6">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6">
+        <v>604</v>
+      </c>
+      <c r="H5" s="3">
+        <f>LOOKUP(I5,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="21">
+        <v>44691</v>
+      </c>
+      <c r="D6" s="21">
+        <v>44697</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3">
+        <v>605</v>
+      </c>
+      <c r="H6" s="3">
+        <f>LOOKUP(I6,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f>LOOKUP(F7,user!$D$2:$D$11,user!$A$2:$A$11)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="21">
+        <v>44692</v>
+      </c>
+      <c r="D7" s="21">
+        <v>44698</v>
+      </c>
+      <c r="E7" s="6">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6">
+        <v>606</v>
+      </c>
+      <c r="H7" s="3">
+        <f>LOOKUP(I7,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="21">
+        <v>44693</v>
+      </c>
+      <c r="D8" s="21">
+        <v>44699</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3">
+        <v>607</v>
+      </c>
+      <c r="H8" s="3">
+        <f>LOOKUP(I8,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="21">
+        <v>44694</v>
+      </c>
+      <c r="D9" s="21">
+        <v>44700</v>
+      </c>
+      <c r="E9" s="6">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6">
+        <v>608</v>
+      </c>
+      <c r="H9" s="3">
+        <f>LOOKUP(I9,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f>LOOKUP(F10,user!$D$2:$D$11,user!$A$2:$A$11)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="21">
+        <v>44696</v>
+      </c>
+      <c r="D10" s="21">
+        <v>44702</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3">
+        <v>609</v>
+      </c>
+      <c r="H10" s="3">
+        <f>LOOKUP(I10,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <f>LOOKUP(F11,user!$D$2:$D$11,user!$A$2:$A$11)</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="21">
+        <v>44696</v>
+      </c>
+      <c r="D11" s="21">
+        <v>44702</v>
+      </c>
+      <c r="E11" s="6">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6">
+        <v>610</v>
+      </c>
+      <c r="H11" s="3">
+        <f>LOOKUP(I11,status!$B$2:$B$3,status!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <f>LOOKUP(D2,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="17">
+        <v>15</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <f>LOOKUP(D3,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <f>LOOKUP(D4,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <f>LOOKUP(D5,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <f>LOOKUP(D6,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>23</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17">
+        <f>LOOKUP(D7,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17">
+        <f>LOOKUP(D8,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17">
+        <f>LOOKUP(D9,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17">
+        <f>LOOKUP(D10,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17">
+        <f>LOOKUP(D11,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <f>LOOKUP(D12,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <f>LOOKUP(D13,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17">
+        <f>LOOKUP(D14,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>25</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="17">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17">
+        <f>LOOKUP(D15,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17">
+        <f>LOOKUP(D16,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="17">
+        <v>10</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17">
+        <f>LOOKUP(D17,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>7</v>
+      </c>
+      <c r="C18" s="17">
+        <f>LOOKUP(D18,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17">
+        <v>8</v>
+      </c>
+      <c r="C19" s="17">
+        <f>LOOKUP(D19,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
+        <v>9</v>
+      </c>
+      <c r="C20" s="17">
+        <f>LOOKUP(D20,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17">
+        <f>LOOKUP(D21,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="25.625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>LOOKUP(C2,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="11">
+        <v>344288</v>
+      </c>
+      <c r="D2" s="11">
+        <f>LOOKUP(E2,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <f>LOOKUP(G2,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>LOOKUP(C3,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>24</v>
+      </c>
+      <c r="C3" s="11">
+        <v>614164</v>
+      </c>
+      <c r="D3" s="11">
+        <f>LOOKUP(E3,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <f>LOOKUP(G3,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>LOOKUP(C4,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>394242</v>
+      </c>
+      <c r="D4" s="11">
+        <f>LOOKUP(E4,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <f>LOOKUP(G4,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>LOOKUP(C5,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>660540</v>
+      </c>
+      <c r="D5" s="11">
+        <f>LOOKUP(E5,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <f>LOOKUP(G5,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>LOOKUP(C6,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>125837</v>
+      </c>
+      <c r="D6" s="11">
+        <f>LOOKUP(E6,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6">
+        <f>LOOKUP(G6,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>LOOKUP(C7,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>125703</v>
+      </c>
+      <c r="D7" s="11">
+        <f>LOOKUP(E7,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <f>LOOKUP(G7,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>LOOKUP(C8,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>29</v>
+      </c>
+      <c r="C8" s="11">
+        <v>625283</v>
+      </c>
+      <c r="D8" s="11">
+        <f>LOOKUP(E8,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <f>LOOKUP(G8,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>LOOKUP(C9,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>614611</v>
+      </c>
+      <c r="D9" s="11">
+        <f>LOOKUP(E9,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <f>LOOKUP(G9,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>LOOKUP(C10,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>454311</v>
+      </c>
+      <c r="D10" s="11">
+        <f>LOOKUP(E10,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <f>LOOKUP(G10,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>LOOKUP(C11,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>35</v>
+      </c>
+      <c r="C11" s="11">
+        <v>660007</v>
+      </c>
+      <c r="D11" s="11">
+        <f>LOOKUP(E11,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11">
+        <f>LOOKUP(G11,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>LOOKUP(C12,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
+        <v>603036</v>
+      </c>
+      <c r="D12" s="11">
+        <f>LOOKUP(E12,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <f>LOOKUP(G12,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>LOOKUP(C13,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>18</v>
+      </c>
+      <c r="C13" s="11">
+        <v>450983</v>
+      </c>
+      <c r="D13" s="11">
+        <f>LOOKUP(E13,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <f>LOOKUP(G13,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>LOOKUP(C14,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <v>394782</v>
+      </c>
+      <c r="D14" s="11">
+        <f>LOOKUP(E14,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14">
+        <f>LOOKUP(G14,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>LOOKUP(C15,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
+        <v>603002</v>
+      </c>
+      <c r="D15" s="11">
+        <f>LOOKUP(E15,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <f>LOOKUP(G15,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>LOOKUP(C16,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>17</v>
+      </c>
+      <c r="C16" s="11">
+        <v>450558</v>
+      </c>
+      <c r="D16" s="11">
+        <f>LOOKUP(E16,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16">
+        <f>LOOKUP(G16,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>LOOKUP(C17,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="11">
+        <v>394060</v>
+      </c>
+      <c r="D17" s="11">
+        <f>LOOKUP(E17,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17">
+        <f>LOOKUP(G17,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>LOOKUP(C18,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <v>410661</v>
+      </c>
+      <c r="D18" s="11">
+        <f>LOOKUP(E18,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <f>LOOKUP(G18,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>LOOKUP(C19,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>31</v>
+      </c>
+      <c r="C19" s="11">
+        <v>625590</v>
+      </c>
+      <c r="D19" s="11">
+        <f>LOOKUP(E19,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19">
+        <f>LOOKUP(G19,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>LOOKUP(C20,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>32</v>
+      </c>
+      <c r="C20" s="11">
+        <v>625683</v>
+      </c>
+      <c r="D20" s="11">
+        <f>LOOKUP(E20,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20">
+        <f>LOOKUP(G20,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>LOOKUP(C21,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="11">
+        <v>400562</v>
+      </c>
+      <c r="D21" s="11">
+        <f>LOOKUP(E21,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21">
+        <f>LOOKUP(G21,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>LOOKUP(C22,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>25</v>
+      </c>
+      <c r="C22" s="11">
+        <v>614510</v>
+      </c>
+      <c r="D22" s="11">
+        <f>LOOKUP(E22,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22">
+        <f>LOOKUP(G22,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>LOOKUP(C23,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
+        <v>410542</v>
+      </c>
+      <c r="D23" s="11">
+        <f>LOOKUP(E23,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23">
+        <f>LOOKUP(G23,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>LOOKUP(C24,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>28</v>
+      </c>
+      <c r="C24" s="11">
+        <v>620839</v>
+      </c>
+      <c r="D24" s="11">
+        <f>LOOKUP(E24,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24">
+        <f>LOOKUP(G24,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>LOOKUP(C25,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <v>443890</v>
+      </c>
+      <c r="D25" s="11">
+        <f>LOOKUP(E25,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25">
+        <f>LOOKUP(G25,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>LOOKUP(C26,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>22</v>
+      </c>
+      <c r="C26" s="11">
+        <v>603379</v>
+      </c>
+      <c r="D26" s="11">
+        <f>LOOKUP(E26,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26">
+        <f>LOOKUP(G26,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>LOOKUP(C27,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>23</v>
+      </c>
+      <c r="C27" s="11">
+        <v>603721</v>
+      </c>
+      <c r="D27" s="11">
+        <f>LOOKUP(E27,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27">
+        <f>LOOKUP(G27,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f>LOOKUP(C28,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>10</v>
+      </c>
+      <c r="C28" s="11">
+        <v>410172</v>
+      </c>
+      <c r="D28" s="11">
+        <f>LOOKUP(E28,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28">
+        <f>LOOKUP(G28,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>LOOKUP(C29,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>13</v>
+      </c>
+      <c r="C29" s="11">
+        <v>420151</v>
+      </c>
+      <c r="D29" s="11">
+        <f>LOOKUP(E29,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29">
+        <f>LOOKUP(G29,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f>LOOKUP(C30,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <v>125061</v>
+      </c>
+      <c r="D30" s="11">
+        <f>LOOKUP(E30,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30">
+        <f>LOOKUP(G30,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>LOOKUP(C31,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>34</v>
+      </c>
+      <c r="C31" s="11">
+        <v>630370</v>
+      </c>
+      <c r="D31" s="11">
+        <f>LOOKUP(E31,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31">
+        <f>LOOKUP(G31,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>LOOKUP(C32,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>27</v>
+      </c>
+      <c r="C32" s="11">
+        <v>614753</v>
+      </c>
+      <c r="D32" s="11">
+        <f>LOOKUP(E32,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32">
+        <f>LOOKUP(G32,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>LOOKUP(C33,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>14</v>
+      </c>
+      <c r="C33" s="11">
+        <v>426030</v>
+      </c>
+      <c r="D33" s="11">
+        <f>LOOKUP(E33,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33">
+        <f>LOOKUP(G33,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>LOOKUP(C34,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>16</v>
+      </c>
+      <c r="C34" s="11">
+        <v>450375</v>
+      </c>
+      <c r="D34" s="11">
+        <f>LOOKUP(E34,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <f>LOOKUP(G34,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>LOOKUP(C35,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>30</v>
+      </c>
+      <c r="C35" s="11">
+        <v>625560</v>
+      </c>
+      <c r="D35" s="11">
+        <f>LOOKUP(E35,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35">
+        <f>LOOKUP(G35,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f>LOOKUP(C36,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>33</v>
+      </c>
+      <c r="C36" s="11">
+        <v>630201</v>
+      </c>
+      <c r="D36" s="11">
+        <f>LOOKUP(E36,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36">
+        <f>LOOKUP(G36,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>LOOKUP(C37,index!$B$2:$B$37,index!$A$2:$A$37)</f>
+        <v>4</v>
+      </c>
+      <c r="C37" s="11">
+        <v>190949</v>
+      </c>
+      <c r="D37" s="11">
+        <f>LOOKUP(E37,town!$B$2,town!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37">
+        <f>LOOKUP(G37,street!$B$2:$B$31,street!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -3607,94 +5724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B31">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B4">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3702,7 +5732,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3790,7 +5820,377 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>125061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>125703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>125837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>190949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>344288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>394060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>394242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>394782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>400562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>410172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>410542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>410661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>420151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>426030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>443890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>450375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>450558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>450983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>454311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>603002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>603036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>603379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>603721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>614164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>614510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>614611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>614753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>620839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>625283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>625560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>625590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>625683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>630201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>630370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>660007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>660540</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:B36">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.89999084444715716"/>
@@ -3798,7 +6198,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3926,1037 +6326,352 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B4">
+  <sortState ref="B2:B31">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="2" tint="-0.749992370372631"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="21">
-        <v>44687</v>
-      </c>
-      <c r="D2" s="21">
-        <v>44693</v>
-      </c>
-      <c r="E2" s="3">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3">
-        <v>601</v>
-      </c>
-      <c r="H2" s="3">
-        <f>LOOKUP(I2,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="21">
-        <v>44687</v>
-      </c>
-      <c r="D3" s="21">
-        <v>44693</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6">
-        <v>602</v>
-      </c>
-      <c r="H3" s="3">
-        <f>LOOKUP(I3,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>LOOKUP(F4,user!$D$2:$D$11,user!$A$2:$A$11)</f>
-        <v>9</v>
-      </c>
-      <c r="C4" s="21">
-        <v>44689</v>
-      </c>
-      <c r="D4" s="21">
-        <v>44695</v>
-      </c>
-      <c r="E4" s="3">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>603</v>
-      </c>
-      <c r="H4" s="3">
-        <f>LOOKUP(I4,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="21">
-        <v>44689</v>
-      </c>
-      <c r="D5" s="21">
-        <v>44695</v>
-      </c>
-      <c r="E5" s="6">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6">
-        <v>604</v>
-      </c>
-      <c r="H5" s="3">
-        <f>LOOKUP(I5,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="21">
-        <v>44691</v>
-      </c>
-      <c r="D6" s="21">
-        <v>44697</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3">
-        <v>605</v>
-      </c>
-      <c r="H6" s="3">
-        <f>LOOKUP(I6,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <f>LOOKUP(F7,user!$D$2:$D$11,user!$A$2:$A$11)</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="21">
-        <v>44692</v>
-      </c>
-      <c r="D7" s="21">
-        <v>44698</v>
-      </c>
-      <c r="E7" s="6">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6">
-        <v>606</v>
-      </c>
-      <c r="H7" s="3">
-        <f>LOOKUP(I7,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="21">
-        <v>44693</v>
-      </c>
-      <c r="D8" s="21">
-        <v>44699</v>
-      </c>
-      <c r="E8" s="3">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3">
-        <v>607</v>
-      </c>
-      <c r="H8" s="3">
-        <f>LOOKUP(I8,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="21">
-        <v>44694</v>
-      </c>
-      <c r="D9" s="21">
-        <v>44700</v>
-      </c>
-      <c r="E9" s="6">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6">
-        <v>608</v>
-      </c>
-      <c r="H9" s="3">
-        <f>LOOKUP(I9,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f>LOOKUP(F10,user!$D$2:$D$11,user!$A$2:$A$11)</f>
-        <v>2</v>
-      </c>
-      <c r="C10" s="21">
-        <v>44696</v>
-      </c>
-      <c r="D10" s="21">
-        <v>44702</v>
-      </c>
-      <c r="E10" s="3">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3">
-        <v>609</v>
-      </c>
-      <c r="H10" s="3">
-        <f>LOOKUP(I10,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <f>LOOKUP(F11,user!$D$2:$D$11,user!$A$2:$A$11)</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="21">
-        <v>44696</v>
-      </c>
-      <c r="D11" s="21">
-        <v>44702</v>
-      </c>
-      <c r="E11" s="6">
-        <v>36</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="6">
-        <v>610</v>
-      </c>
-      <c r="H11" s="3">
-        <f>LOOKUP(I11,status!$B$2:$B$3,status!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="18" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <f>LOOKUP(D2,product!$B$2:$B$31,product!$A$2:$A$31)</f>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="17">
-        <v>15</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <f>LOOKUP(D3,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="17">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <f>LOOKUP(D4,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>9</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="17">
-        <v>10</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17">
-        <f>LOOKUP(D5,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>11</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17">
-        <f>LOOKUP(D6,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>23</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17">
-        <f>LOOKUP(D7,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17">
-        <f>LOOKUP(D8,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>14</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17">
-        <f>LOOKUP(D9,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>19</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17">
-        <f>LOOKUP(D10,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>27</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17">
-        <f>LOOKUP(D11,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>21</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
-        <f>LOOKUP(D12,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>12</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17">
-        <f>LOOKUP(D13,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>29</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="17">
-        <v>15</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17">
-        <f>LOOKUP(D14,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>25</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="17">
-        <v>10</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17">
-        <v>4</v>
-      </c>
-      <c r="C15" s="17">
-        <f>LOOKUP(D15,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>5</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17">
-        <f>LOOKUP(D16,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>6</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="17">
-        <v>10</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="17">
-        <f>LOOKUP(D17,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>4</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17">
-        <v>7</v>
-      </c>
-      <c r="C18" s="17">
-        <f>LOOKUP(D18,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>22</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="17">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17">
-        <v>8</v>
-      </c>
-      <c r="C19" s="17">
-        <f>LOOKUP(D19,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>27</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17">
-        <v>9</v>
-      </c>
-      <c r="C20" s="17">
-        <f>LOOKUP(D20,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>20</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17">
-        <v>10</v>
-      </c>
-      <c r="C21" s="17">
-        <f>LOOKUP(D21,product!$B$2:$B$31,product!$A$2:$A$31)</f>
-        <v>28</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B2:B31">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -4964,7 +6679,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5005,1719 +6720,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="25.625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>LOOKUP(C2,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="11">
-        <v>344288</v>
-      </c>
-      <c r="D2" s="11">
-        <f>LOOKUP(E2,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2">
-        <f>LOOKUP(G2,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>LOOKUP(C3,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>24</v>
-      </c>
-      <c r="C3" s="11">
-        <v>614164</v>
-      </c>
-      <c r="D3" s="11">
-        <f>LOOKUP(E3,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3">
-        <f>LOOKUP(G3,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>LOOKUP(C4,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>7</v>
-      </c>
-      <c r="C4" s="11">
-        <v>394242</v>
-      </c>
-      <c r="D4" s="11">
-        <f>LOOKUP(E4,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4">
-        <f>LOOKUP(G4,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>LOOKUP(C5,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>36</v>
-      </c>
-      <c r="C5" s="11">
-        <v>660540</v>
-      </c>
-      <c r="D5" s="11">
-        <f>LOOKUP(E5,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5">
-        <f>LOOKUP(G5,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>LOOKUP(C6,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
-        <v>125837</v>
-      </c>
-      <c r="D6" s="11">
-        <f>LOOKUP(E6,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6">
-        <f>LOOKUP(G6,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>LOOKUP(C7,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>125703</v>
-      </c>
-      <c r="D7" s="11">
-        <f>LOOKUP(E7,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7">
-        <f>LOOKUP(G7,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>LOOKUP(C8,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>29</v>
-      </c>
-      <c r="C8" s="11">
-        <v>625283</v>
-      </c>
-      <c r="D8" s="11">
-        <f>LOOKUP(E8,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8">
-        <f>LOOKUP(G8,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>LOOKUP(C9,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>26</v>
-      </c>
-      <c r="C9" s="11">
-        <v>614611</v>
-      </c>
-      <c r="D9" s="11">
-        <f>LOOKUP(E9,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9">
-        <f>LOOKUP(G9,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>LOOKUP(C10,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>19</v>
-      </c>
-      <c r="C10" s="11">
-        <v>454311</v>
-      </c>
-      <c r="D10" s="11">
-        <f>LOOKUP(E10,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10">
-        <f>LOOKUP(G10,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>LOOKUP(C11,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>35</v>
-      </c>
-      <c r="C11" s="11">
-        <v>660007</v>
-      </c>
-      <c r="D11" s="11">
-        <f>LOOKUP(E11,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11">
-        <f>LOOKUP(G11,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f>LOOKUP(C12,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>21</v>
-      </c>
-      <c r="C12" s="11">
-        <v>603036</v>
-      </c>
-      <c r="D12" s="11">
-        <f>LOOKUP(E12,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12">
-        <f>LOOKUP(G12,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>LOOKUP(C13,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>18</v>
-      </c>
-      <c r="C13" s="11">
-        <v>450983</v>
-      </c>
-      <c r="D13" s="11">
-        <f>LOOKUP(E13,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13">
-        <f>LOOKUP(G13,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f>LOOKUP(C14,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>8</v>
-      </c>
-      <c r="C14" s="11">
-        <v>394782</v>
-      </c>
-      <c r="D14" s="11">
-        <f>LOOKUP(E14,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14">
-        <f>LOOKUP(G14,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f>LOOKUP(C15,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>20</v>
-      </c>
-      <c r="C15" s="11">
-        <v>603002</v>
-      </c>
-      <c r="D15" s="11">
-        <f>LOOKUP(E15,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15">
-        <f>LOOKUP(G15,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f>LOOKUP(C16,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>17</v>
-      </c>
-      <c r="C16" s="11">
-        <v>450558</v>
-      </c>
-      <c r="D16" s="11">
-        <f>LOOKUP(E16,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16">
-        <f>LOOKUP(G16,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f>LOOKUP(C17,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>6</v>
-      </c>
-      <c r="C17" s="11">
-        <v>394060</v>
-      </c>
-      <c r="D17" s="11">
-        <f>LOOKUP(E17,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17">
-        <f>LOOKUP(G17,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f>LOOKUP(C18,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="11">
-        <v>410661</v>
-      </c>
-      <c r="D18" s="11">
-        <f>LOOKUP(E18,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18">
-        <f>LOOKUP(G18,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f>LOOKUP(C19,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>31</v>
-      </c>
-      <c r="C19" s="11">
-        <v>625590</v>
-      </c>
-      <c r="D19" s="11">
-        <f>LOOKUP(E19,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19">
-        <f>LOOKUP(G19,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f>LOOKUP(C20,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>32</v>
-      </c>
-      <c r="C20" s="11">
-        <v>625683</v>
-      </c>
-      <c r="D20" s="11">
-        <f>LOOKUP(E20,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20">
-        <f>LOOKUP(G20,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f>LOOKUP(C21,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>9</v>
-      </c>
-      <c r="C21" s="11">
-        <v>400562</v>
-      </c>
-      <c r="D21" s="11">
-        <f>LOOKUP(E21,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21">
-        <f>LOOKUP(G21,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f>LOOKUP(C22,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>25</v>
-      </c>
-      <c r="C22" s="11">
-        <v>614510</v>
-      </c>
-      <c r="D22" s="11">
-        <f>LOOKUP(E22,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22">
-        <f>LOOKUP(G22,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f>LOOKUP(C23,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>410542</v>
-      </c>
-      <c r="D23" s="11">
-        <f>LOOKUP(E23,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23">
-        <f>LOOKUP(G23,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f>LOOKUP(C24,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>28</v>
-      </c>
-      <c r="C24" s="11">
-        <v>620839</v>
-      </c>
-      <c r="D24" s="11">
-        <f>LOOKUP(E24,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24">
-        <f>LOOKUP(G24,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f>LOOKUP(C25,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="11">
-        <v>443890</v>
-      </c>
-      <c r="D25" s="11">
-        <f>LOOKUP(E25,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25">
-        <f>LOOKUP(G25,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f>LOOKUP(C26,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>22</v>
-      </c>
-      <c r="C26" s="11">
-        <v>603379</v>
-      </c>
-      <c r="D26" s="11">
-        <f>LOOKUP(E26,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26">
-        <f>LOOKUP(G26,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f>LOOKUP(C27,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>23</v>
-      </c>
-      <c r="C27" s="11">
-        <v>603721</v>
-      </c>
-      <c r="D27" s="11">
-        <f>LOOKUP(E27,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27">
-        <f>LOOKUP(G27,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f>LOOKUP(C28,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>10</v>
-      </c>
-      <c r="C28" s="11">
-        <v>410172</v>
-      </c>
-      <c r="D28" s="11">
-        <f>LOOKUP(E28,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28">
-        <f>LOOKUP(G28,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f>LOOKUP(C29,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>13</v>
-      </c>
-      <c r="C29" s="11">
-        <v>420151</v>
-      </c>
-      <c r="D29" s="11">
-        <f>LOOKUP(E29,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29">
-        <f>LOOKUP(G29,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f>LOOKUP(C30,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="11">
-        <v>125061</v>
-      </c>
-      <c r="D30" s="11">
-        <f>LOOKUP(E30,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30">
-        <f>LOOKUP(G30,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f>LOOKUP(C31,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>34</v>
-      </c>
-      <c r="C31" s="11">
-        <v>630370</v>
-      </c>
-      <c r="D31" s="11">
-        <f>LOOKUP(E31,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31">
-        <f>LOOKUP(G31,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f>LOOKUP(C32,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>27</v>
-      </c>
-      <c r="C32" s="11">
-        <v>614753</v>
-      </c>
-      <c r="D32" s="11">
-        <f>LOOKUP(E32,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32">
-        <f>LOOKUP(G32,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f>LOOKUP(C33,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>14</v>
-      </c>
-      <c r="C33" s="11">
-        <v>426030</v>
-      </c>
-      <c r="D33" s="11">
-        <f>LOOKUP(E33,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33">
-        <f>LOOKUP(G33,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f>LOOKUP(C34,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>16</v>
-      </c>
-      <c r="C34" s="11">
-        <v>450375</v>
-      </c>
-      <c r="D34" s="11">
-        <f>LOOKUP(E34,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34">
-        <f>LOOKUP(G34,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f>LOOKUP(C35,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>30</v>
-      </c>
-      <c r="C35" s="11">
-        <v>625560</v>
-      </c>
-      <c r="D35" s="11">
-        <f>LOOKUP(E35,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35">
-        <f>LOOKUP(G35,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f>LOOKUP(C36,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>33</v>
-      </c>
-      <c r="C36" s="11">
-        <v>630201</v>
-      </c>
-      <c r="D36" s="11">
-        <f>LOOKUP(E36,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36">
-        <f>LOOKUP(G36,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f>LOOKUP(C37,index!$B$2:$B$37,index!$A$2:$A$37)</f>
-        <v>4</v>
-      </c>
-      <c r="C37" s="11">
-        <v>190949</v>
-      </c>
-      <c r="D37" s="11">
-        <f>LOOKUP(E37,town!$B$2,town!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37">
-        <f>LOOKUP(G37,street!$B$2:$B$31,street!$A$2:$A$31)</f>
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>125061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>125703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>125837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>190949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>344288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>394060</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>394242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>394782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>400562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>410172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>410542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>410661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>420151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>426030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>443890</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>450375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>450558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>450983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>454311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>603002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>603036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>603379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>603721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>614164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>614510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>614611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>614753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>620839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>625283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>625560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>625590</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>625683</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>630201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>630370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>660007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>660540</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B1:B36">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B31">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>